--- a/nuno-dataset/test-oxigen-03/better_results.xlsx
+++ b/nuno-dataset/test-oxigen-03/better_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,36 +491,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>model_2_7_0</t>
+          <t>model_1_5_1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9275350856023349</v>
+        <v>0.9649195556787628</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9197252229411154</v>
+        <v>0.8208618240053256</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9165061473575123</v>
+        <v>0.9245039684296985</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9184872048141541</v>
+        <v>0.8491779229671435</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08019731193780899</v>
+        <v>0.03882371634244919</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1191600933670998</v>
+        <v>0.1336030215024948</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08731564879417419</v>
+        <v>0.02273185178637505</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1041747629642487</v>
+        <v>0.08142784237861633</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.1, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
@@ -530,2883 +530,3585 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>model_2_7_1</t>
+          <t>model_1_5_0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9265304942164049</v>
+        <v>0.9637280912094704</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8806707413752226</v>
+        <v>0.8208597363202955</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9243294974917049</v>
+        <v>0.9713424578390354</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8974851971065939</v>
+        <v>0.8614686804384116</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08130908757448196</v>
+        <v>0.04014231637120247</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1771326661109924</v>
+        <v>0.133604571223259</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07913419604301453</v>
+        <v>0.0086287846788764</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1310156881809235</v>
+        <v>0.07479214668273926</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.1, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>model_2_7_5</t>
+          <t>model_1_5_2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9161616475352957</v>
+        <v>0.9636299407095074</v>
       </c>
       <c r="D4" t="n">
-        <v>0.830264312730019</v>
+        <v>0.816152088439269</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8695263535036741</v>
+        <v>0.8419319592186862</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8453862941939053</v>
+        <v>0.824062530217048</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09278435260057449</v>
+        <v>0.04025093838572502</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2519561052322388</v>
+        <v>0.1371155977249146</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1364458650350571</v>
+        <v>0.04759427905082703</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1975989937782288</v>
+        <v>0.09498747438192368</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.1, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>model_2_7_6</t>
+          <t>model_1_5_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9159776176558009</v>
+        <v>0.9611247985587379</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8319579275602466</v>
+        <v>0.8092496473586204</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8610407344865845</v>
+        <v>0.7462948028309362</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8431598289070821</v>
+        <v>0.7939130960828302</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09298801422119141</v>
+        <v>0.04302338883280754</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2494421005249023</v>
+        <v>0.1422634869813919</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1453198939561844</v>
+        <v>0.07639062404632568</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2004444599151611</v>
+        <v>0.1112649664282799</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.1, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>model_3_8_2</t>
+          <t>model_1_5_4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8996928573047734</v>
+        <v>0.9578499119841386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8595304954452452</v>
+        <v>0.8023096356566647</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8890422026348836</v>
+        <v>0.64068904748967</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8816337287028899</v>
+        <v>0.7611229121334023</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1110104471445084</v>
+        <v>0.04664772748947144</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1884552836418152</v>
+        <v>0.1474394202232361</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1755475401878357</v>
+        <v>0.1081885173916817</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1823808699846268</v>
+        <v>0.1289681643247604</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.1</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>model_8_9_24</t>
+          <t>model_1_9_6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.899343570062251</v>
+        <v>0.9576542538904927</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9164830846432804</v>
+        <v>0.805590747075272</v>
       </c>
       <c r="E7" t="n">
-        <v>0.894339225728107</v>
+        <v>0.9328828846282975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.910625373263681</v>
+        <v>0.8807934453493941</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1113970130681992</v>
+        <v>0.04686426371335983</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1922728419303894</v>
+        <v>0.1966384947299957</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1188919767737389</v>
+        <v>0.1014945060014725</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1577407121658325</v>
+        <v>0.1518647819757462</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>model_8_9_23</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8991157036820365</v>
+        <v>0.9572019305237089</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9185175903901874</v>
+        <v>0.8095875707938381</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8960899762766936</v>
+        <v>0.9248011959883484</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9125556207727853</v>
+        <v>0.8779590023641022</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1116491928696632</v>
+        <v>0.04736485332250595</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1875889897346497</v>
+        <v>0.1925958395004272</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1169219985604286</v>
+        <v>0.1137156337499619</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1543339490890503</v>
+        <v>0.1554757654666901</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>model_8_9_22</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8988926458427012</v>
+        <v>0.9551089924576718</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9206353868496853</v>
+        <v>0.815495422972264</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8978078310778747</v>
+        <v>0.9091754858436001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.914533466407548</v>
+        <v>0.8717137570536164</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1118960455060005</v>
+        <v>0.04968111962080002</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1827134042978287</v>
+        <v>0.1866202354431152</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1149890273809433</v>
+        <v>0.1373448371887207</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1508431881666183</v>
+        <v>0.1634319871664047</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>model_8_9_21</t>
+          <t>model_1_9_9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8986475697010439</v>
+        <v>0.9530107160534541</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9227486236547433</v>
+        <v>0.8097270846877849</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8995680511595344</v>
+        <v>0.9025395032345322</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9165209238307659</v>
+        <v>0.8655827794624354</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1121672764420509</v>
+        <v>0.05200329050421715</v>
       </c>
       <c r="H10" t="n">
-        <v>0.177848294377327</v>
+        <v>0.1924547255039215</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1130083799362183</v>
+        <v>0.1473797559738159</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1473354250192642</v>
+        <v>0.1712425947189331</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>model_8_9_20</t>
+          <t>model_1_9_10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8984005893661421</v>
+        <v>0.9523012965767345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9249168438458886</v>
+        <v>0.8091497162129547</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9013324445733677</v>
+        <v>0.8993068698161901</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9185476081487356</v>
+        <v>0.8635343032249139</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1124406084418297</v>
+        <v>0.05278841033577919</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1728566139936447</v>
+        <v>0.1930387169122696</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1110230460762978</v>
+        <v>0.1522681415081024</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1437584459781647</v>
+        <v>0.1738522946834564</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>model_8_9_19</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8981249947093877</v>
+        <v>0.952249331988145</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9270761566148581</v>
+        <v>0.8053575548080281</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9030907721081001</v>
+        <v>0.9149377670351064</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9205662377171665</v>
+        <v>0.8706709378725545</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1127456054091454</v>
+        <v>0.05284592136740685</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1678854376077652</v>
+        <v>0.1968743503093719</v>
       </c>
       <c r="I12" t="n">
-        <v>0.109044536948204</v>
+        <v>0.1286311000585556</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1401956975460052</v>
+        <v>0.164760485291481</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>model_8_9_18</t>
+          <t>model_1_9_11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8978259073419741</v>
+        <v>0.9518200916561613</v>
       </c>
       <c r="D13" t="n">
-        <v>0.929197013250551</v>
+        <v>0.8087374472988399</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9049436038793901</v>
+        <v>0.8971442506899887</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9225867913542711</v>
+        <v>0.8621526654609102</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1130766198039055</v>
+        <v>0.05332096293568611</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1630028039216995</v>
+        <v>0.1934557110071182</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1069596856832504</v>
+        <v>0.1555384695529938</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1366295367479324</v>
+        <v>0.1756124496459961</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>model_3_8_3</t>
+          <t>model_1_9_12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8977487068788543</v>
+        <v>0.9517473115218898</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8196078177722673</v>
+        <v>0.8086206756763445</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8605825162509683</v>
+        <v>0.8968578234976722</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8494789438729788</v>
+        <v>0.8619439500001829</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1131620481610298</v>
+        <v>0.05340150371193886</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2420159429311752</v>
+        <v>0.1935738176107407</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2205739170312881</v>
+        <v>0.1559715867042542</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2319255620241165</v>
+        <v>0.1758783459663391</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.1</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>model_8_9_17</t>
+          <t>model_1_9_13</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8974883225186159</v>
+        <v>0.9516081632125706</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9312663805181988</v>
+        <v>0.8086385003941425</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9068350360725735</v>
+        <v>0.8961296060029148</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9245832109473419</v>
+        <v>0.8615446701724125</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1134502217173576</v>
+        <v>0.05355549976229668</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1582387089729309</v>
+        <v>0.1935557872056961</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1048314049839973</v>
+        <v>0.1570728123188019</v>
       </c>
       <c r="J15" t="n">
-        <v>0.133105993270874</v>
+        <v>0.1763869971036911</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>model_8_9_16</t>
+          <t>model_1_9_14</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8971260564708142</v>
+        <v>0.9515471085286584</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9333345962081299</v>
+        <v>0.8085233925895505</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9087119582494965</v>
+        <v>0.8959039657898101</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9265746679450122</v>
+        <v>0.861369779622846</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1138511374592781</v>
+        <v>0.05362307280302048</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1534772515296936</v>
+        <v>0.1936722099781036</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1027194485068321</v>
+        <v>0.1574140191078186</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1295911967754364</v>
+        <v>0.1766098290681839</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>model_8_9_15</t>
+          <t>model_1_9_15</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8967312559171801</v>
+        <v>0.9513959184463432</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9353409606004581</v>
+        <v>0.8083043486607613</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9107007753895059</v>
+        <v>0.8952931280139554</v>
       </c>
       <c r="F17" t="n">
-        <v>0.928556834873594</v>
+        <v>0.8609368952474156</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1142880767583847</v>
+        <v>0.05379039794206619</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1488581895828247</v>
+        <v>0.193893775343895</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1004815846681595</v>
+        <v>0.158337727189064</v>
       </c>
       <c r="J17" t="n">
-        <v>0.126092791557312</v>
+        <v>0.177161306142807</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>model_8_9_14</t>
+          <t>model_2_8_24</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8963037479221247</v>
+        <v>0.9513499043209158</v>
       </c>
       <c r="D18" t="n">
-        <v>0.937308889378449</v>
+        <v>0.785038835643716</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9127309467505285</v>
+        <v>0.7647445298514287</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9305250692422462</v>
+        <v>0.8801750693946875</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1147611886262894</v>
+        <v>0.05384132266044617</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1443276256322861</v>
+        <v>0.04777445644140244</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09819718450307846</v>
+        <v>0.07681678235530853</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1226189807057381</v>
+        <v>0.06144182756543159</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>model_8_9_13</t>
+          <t>model_1_9_16</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.895843965158448</v>
+        <v>0.9513478006512934</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9392229561427525</v>
+        <v>0.8082841984090939</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9148282896089055</v>
+        <v>0.8950617475480358</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9324759675576745</v>
+        <v>0.8607990626373975</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1152700334787369</v>
+        <v>0.05384364724159241</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1399210542440414</v>
+        <v>0.1939141452312469</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09583720564842224</v>
+        <v>0.1586876213550568</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1191757544875145</v>
+        <v>0.1773368865251541</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>model_8_9_12</t>
+          <t>model_1_9_17</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8953553022721964</v>
+        <v>0.9513420895239073</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9410733064648298</v>
+        <v>0.8082679539776956</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9170842529470766</v>
+        <v>0.8950443223996429</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9344304917078239</v>
+        <v>0.8607827375804457</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1158108487725258</v>
+        <v>0.0538499690592289</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1356611847877502</v>
+        <v>0.1939305812120438</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09329874813556671</v>
+        <v>0.1587139815092087</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1157261431217194</v>
+        <v>0.1773576885461807</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>model_8_9_11</t>
+          <t>model_1_9_23</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8948359640159501</v>
+        <v>0.9513049481993592</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9428503253899196</v>
+        <v>0.8082284712361631</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9194884957429204</v>
+        <v>0.8948834791347069</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9363790409712096</v>
+        <v>0.8606764062188234</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1163855940103531</v>
+        <v>0.05389107018709183</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1315701007843018</v>
+        <v>0.1939705163240433</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09059343487024307</v>
+        <v>0.1589571982622147</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1122870743274689</v>
+        <v>0.177493155002594</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>model_8_9_10</t>
+          <t>model_1_9_22</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8942729749482714</v>
+        <v>0.9513049481993592</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9445562764177399</v>
+        <v>0.8082284712361631</v>
       </c>
       <c r="E22" t="n">
-        <v>0.921961223662775</v>
+        <v>0.8948834791347069</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9382990307122105</v>
+        <v>0.8606764062188234</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1170086711645126</v>
+        <v>0.05389107018709183</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1276426762342453</v>
+        <v>0.1939705163240433</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08781106024980545</v>
+        <v>0.1589571982622147</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1088984161615372</v>
+        <v>0.177493155002594</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>model_8_9_9</t>
+          <t>model_1_9_21</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8936700750796462</v>
+        <v>0.9513049481993592</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9461934255974247</v>
+        <v>0.8082284712361631</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9245118503803476</v>
+        <v>0.8948834791347069</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9401948729737096</v>
+        <v>0.8606764062188234</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1176758855581284</v>
+        <v>0.05389107018709183</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1238736286759377</v>
+        <v>0.1939705163240433</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08494103699922562</v>
+        <v>0.1589571982622147</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1055523678660393</v>
+        <v>0.177493155002594</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>model_8_9_8</t>
+          <t>model_1_9_20</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8930119056333568</v>
+        <v>0.9513049481993592</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9477342010118358</v>
+        <v>0.8082284712361631</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9271187847280594</v>
+        <v>0.8948834791347069</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9420409980721184</v>
+        <v>0.8606764062188234</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1184042915701866</v>
+        <v>0.05389107018709183</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1203264370560646</v>
+        <v>0.1939705163240433</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08200764656066895</v>
+        <v>0.1589571982622147</v>
       </c>
       <c r="J24" t="n">
-        <v>0.102294072508812</v>
+        <v>0.177493155002594</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>model_8_9_7</t>
+          <t>model_1_9_19</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8923046413029037</v>
+        <v>0.9513049481993592</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9492027014744141</v>
+        <v>0.8082284712361631</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9297770435563913</v>
+        <v>0.8948834791347069</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9438526229992192</v>
+        <v>0.8606764062188234</v>
       </c>
       <c r="G25" t="n">
-        <v>0.119187019765377</v>
+        <v>0.05389107018709183</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1169456765055656</v>
+        <v>0.1939705163240433</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07901651412248611</v>
+        <v>0.1589571982622147</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09909666329622269</v>
+        <v>0.177493155002594</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>model_8_9_6</t>
+          <t>model_1_9_18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.891535605513989</v>
+        <v>0.9513049481993592</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9505461488958943</v>
+        <v>0.8082284712361631</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9325650224007369</v>
+        <v>0.8948834791347069</v>
       </c>
       <c r="F26" t="n">
-        <v>0.945616793756404</v>
+        <v>0.8606764062188234</v>
       </c>
       <c r="G26" t="n">
-        <v>0.120038129389286</v>
+        <v>0.05389107018709183</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1138527765870094</v>
+        <v>0.1939705163240433</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07587941735982895</v>
+        <v>0.1589571982622147</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09598301351070404</v>
+        <v>0.177493155002594</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>model_8_9_5</t>
+          <t>model_1_9_24</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8907094477875862</v>
+        <v>0.9513049481993592</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9518050167715436</v>
+        <v>0.8082284712361631</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9353305722961232</v>
+        <v>0.8948834791347069</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9473159122335848</v>
+        <v>0.8606764062188234</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1209524348378181</v>
+        <v>0.05389107018709183</v>
       </c>
       <c r="H27" t="n">
-        <v>0.110954612493515</v>
+        <v>0.1939705163240433</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07276755571365356</v>
+        <v>0.1589571982622147</v>
       </c>
       <c r="J27" t="n">
-        <v>0.09298416972160339</v>
+        <v>0.177493155002594</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>model_8_9_4</t>
+          <t>model_2_8_23</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.889802968300957</v>
+        <v>0.9506986148687629</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9529443710578006</v>
+        <v>0.7865355979080132</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9380686047241389</v>
+        <v>0.7792834386457412</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9489241855751863</v>
+        <v>0.8848757466061974</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1219556406140327</v>
+        <v>0.05456211045384407</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1083315834403038</v>
+        <v>0.04744180291891098</v>
       </c>
       <c r="I28" t="n">
-        <v>0.069686658680439</v>
+        <v>0.07206947356462479</v>
       </c>
       <c r="J28" t="n">
-        <v>0.09014566242694855</v>
+        <v>0.05903149396181107</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>model_8_9_3</t>
+          <t>model_2_8_22</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8888172092113485</v>
+        <v>0.9499687368869044</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9539797425143416</v>
+        <v>0.7876189927442742</v>
       </c>
       <c r="E29" t="n">
-        <v>0.940709205749482</v>
+        <v>0.7934931466682521</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9504313079023247</v>
+        <v>0.8893819281947337</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1230465769767761</v>
+        <v>0.05536986514925957</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1059479415416718</v>
+        <v>0.04720102250576019</v>
       </c>
       <c r="I29" t="n">
-        <v>0.06671538949012756</v>
+        <v>0.06742964684963226</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08748569339513779</v>
+        <v>0.05672089010477066</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>model_8_9_2</t>
+          <t>model_2_8_21</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8877381927499515</v>
+        <v>0.9490920955812517</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9548962645655689</v>
+        <v>0.7883181114588015</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9432503991715622</v>
+        <v>0.8058234602935764</v>
       </c>
       <c r="F30" t="n">
-        <v>0.951826661931243</v>
+        <v>0.8932390268378358</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1242407485842705</v>
+        <v>0.0563400499522686</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1038379296660423</v>
+        <v>0.04704564437270164</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06385598331689835</v>
+        <v>0.06340349465608597</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08502297848463058</v>
+        <v>0.05474310368299484</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>model_6_8_4</t>
+          <t>model_1_7_9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.8872440514176589</v>
+        <v>0.9488767126491946</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9287942072857149</v>
+        <v>0.8713820763889764</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8892441725197479</v>
+        <v>0.7158100961004291</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9244030851304031</v>
+        <v>0.8274864232277883</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1247876062989235</v>
+        <v>0.05657841637730598</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03056908398866653</v>
+        <v>0.1568951308727264</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1081724613904953</v>
+        <v>0.2161082029342651</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06708826124668121</v>
+        <v>0.1847598701715469</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.1, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>model_8_9_1</t>
+          <t>model_1_9_5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.8865589044232837</v>
+        <v>0.9485584054334892</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9557054746762481</v>
+        <v>0.8099095443455607</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9456012598795485</v>
+        <v>0.888193497701713</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9530907896200608</v>
+        <v>0.8576460868594884</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1255458742380142</v>
+        <v>0.05693068727850914</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1019749566912651</v>
+        <v>0.1922701746225357</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06121073663234711</v>
+        <v>0.1690737903118134</v>
       </c>
       <c r="J32" t="n">
-        <v>0.08279186487197876</v>
+        <v>0.1813536882400513</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>model_6_8_3</t>
+          <t>model_2_8_20</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8863662454251212</v>
+        <v>0.9481470374910766</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9200854884020385</v>
+        <v>0.788443713387998</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9015218514637039</v>
+        <v>0.8178689481903682</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9285312823527349</v>
+        <v>0.8968778872401223</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1257590800523758</v>
+        <v>0.05738594755530357</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03430779278278351</v>
+        <v>0.04701773449778557</v>
       </c>
       <c r="I33" t="n">
-        <v>0.09618113934993744</v>
+        <v>0.05947033688426018</v>
       </c>
       <c r="J33" t="n">
-        <v>0.06342469900846481</v>
+        <v>0.05287722870707512</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.1, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>model_8_9_0</t>
+          <t>model_1_7_10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8852661330206273</v>
+        <v>0.9477402256766058</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9563955477793491</v>
+        <v>0.8706919007415641</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9477143286259406</v>
+        <v>0.7040193420504428</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9542012723040117</v>
+        <v>0.8231302726023886</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1269765794277191</v>
+        <v>0.05783616751432419</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1003862768411636</v>
+        <v>0.1577370464801788</v>
       </c>
       <c r="I34" t="n">
-        <v>0.05883306264877319</v>
+        <v>0.2250743210315704</v>
       </c>
       <c r="J34" t="n">
-        <v>0.08083194494247437</v>
+        <v>0.1894252747297287</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>model_6_8_2</t>
+          <t>model_2_8_19</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8851580807591378</v>
+        <v>0.9470454447312686</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9120317197946342</v>
+        <v>0.7881949231330927</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9110954016597999</v>
+        <v>0.8281629352605947</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9314267977223855</v>
+        <v>0.8999048204999844</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1270961612462997</v>
+        <v>0.05860509350895882</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03776532784104347</v>
+        <v>0.04707302525639534</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08683089911937714</v>
+        <v>0.05610909312963486</v>
       </c>
       <c r="J35" t="n">
-        <v>0.06085507944226265</v>
+        <v>0.05132513493299484</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.1, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>model_6_8_1</t>
+          <t>model_1_7_8</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8836334704126405</v>
+        <v>0.9464189798872124</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9044593436530158</v>
+        <v>0.8663198080509205</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9182134247024503</v>
+        <v>0.7165429084890363</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9331739772746065</v>
+        <v>0.8246790290467113</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1287834644317627</v>
+        <v>0.05929839611053467</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04101619496941566</v>
+        <v>0.1630703657865524</v>
       </c>
       <c r="I36" t="n">
-        <v>0.07987890392541885</v>
+        <v>0.2155509442090988</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05930455401539803</v>
+        <v>0.1877665668725967</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.1, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>model_4_4_6</t>
+          <t>model_1_9_4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.8825727855960317</v>
+        <v>0.9460729196989982</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8944748278708561</v>
+        <v>0.7994619146243326</v>
       </c>
       <c r="E37" t="n">
-        <v>0.849632334410706</v>
+        <v>0.8859253060889851</v>
       </c>
       <c r="F37" t="n">
-        <v>0.887271865498204</v>
+        <v>0.8519876678483334</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1299573332071304</v>
+        <v>0.05968138575553894</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1012947782874107</v>
+        <v>0.2028376162052155</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1884661316871643</v>
+        <v>0.1725037544965744</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1423166543245316</v>
+        <v>0.1885622888803482</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>model_6_8_0</t>
+          <t>model_2_8_18</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.8818426923295832</v>
+        <v>0.9458472276534998</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8970827553356857</v>
+        <v>0.7872398048254923</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9234471860725225</v>
+        <v>0.8386400831000471</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9339954889578967</v>
+        <v>0.9028240776902633</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1307653188705444</v>
+        <v>0.05993116274476051</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04418300837278366</v>
+        <v>0.0472852997481823</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07476722449064255</v>
+        <v>0.05268804728984833</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05857550725340843</v>
+        <v>0.04982824251055717</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.1, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>model_4_4_5</t>
+          <t>model_2_8_17</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.881606360034772</v>
+        <v>0.9445345286126616</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8959882293313581</v>
+        <v>0.7858425449727815</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8522761372256777</v>
+        <v>0.8483334802769711</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8891163826343628</v>
+        <v>0.9054094110383435</v>
       </c>
       <c r="G39" t="n">
-        <v>0.13102687895298</v>
+        <v>0.0613839291036129</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09984204918146133</v>
+        <v>0.04759583622217178</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1851524859666824</v>
+        <v>0.04952290654182434</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1399880051612854</v>
+        <v>0.04850258305668831</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>model_4_4_4</t>
+          <t>model_1_7_11</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.8801976911385085</v>
+        <v>0.9438342384087635</v>
       </c>
       <c r="D40" t="n">
-        <v>0.89411655460919</v>
+        <v>0.8616196731941705</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8546502233852074</v>
+        <v>0.6781043347268905</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8894720210382003</v>
+        <v>0.8090012547916549</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1325858533382416</v>
+        <v>0.06215894594788551</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1016386896371841</v>
+        <v>0.1688038408756256</v>
       </c>
       <c r="I40" t="n">
-        <v>0.182176873087883</v>
+        <v>0.2447810173034668</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1395390182733536</v>
+        <v>0.2045572698116302</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>model_4_6_1</t>
+          <t>model_1_7_13</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.8798030102521499</v>
+        <v>0.943392144435148</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8274884724492493</v>
+        <v>0.8566157056036362</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8769278331946618</v>
+        <v>0.6821628216113949</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8570079002429838</v>
+        <v>0.8073395628171234</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1330226510763168</v>
+        <v>0.06264821439981461</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1675142496824265</v>
+        <v>0.1749079525470734</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1699701845645905</v>
+        <v>0.2416947931051254</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1686699241399765</v>
+        <v>0.2063369154930115</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>model_4_4_3</t>
+          <t>model_1_7_24</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.8790562590841103</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8933928869919094</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8580403784767376</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8907645871066258</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1338490694761276</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1023333445191383</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1779277622699738</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1379071623086929</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>model_4_4_2</t>
+          <t>model_1_7_17</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8778492646903266</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8910139733954732</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8611102368579352</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8912412633699671</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1351848691701889</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1046168953180313</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I43" t="n">
-        <v>0.174080103635788</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1373053789138794</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>model_4_4_0</t>
+          <t>model_1_7_22</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8762526056265461</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9068408278228717</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9186615878817426</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9244998308124044</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1369519084692001</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08942452073097229</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1019470319151878</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J44" t="n">
-        <v>0.09531721472740173</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>model_4_2_2</t>
+          <t>model_1_7_21</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.8762204883567202</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9500360264741163</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9162888219892003</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9385144896471246</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1369874477386475</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04911458864808083</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05703870207071304</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J45" t="n">
-        <v>0.05284345149993896</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>model_4_2_1</t>
+          <t>model_1_7_20</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8761736203121342</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9605388291643673</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9294411157899022</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9497810147870126</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1370393186807632</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03879033401608467</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0480770617723465</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J46" t="n">
-        <v>0.04316049069166183</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>model_8_8_11</t>
+          <t>model_1_7_19</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8743302547691942</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8195780829144641</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8069896530021349</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8320165857753818</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1390793770551682</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1281476616859436</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2323769181966782</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1771969199180603</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>model_4_6_2</t>
+          <t>model_1_7_18</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.8736448425678942</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8528178403167533</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8188236551607704</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8360330979446465</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1398379355669022</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1429186165332794</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2502155900001526</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1934112757444382</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>model_8_8_10</t>
+          <t>model_1_7_23</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8732486075823511</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8240685306398228</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8070511710157824</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F49" t="n">
-        <v>0.833650263643238</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1402764469385147</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1249582469463348</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2323028594255447</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1754736453294754</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>model_4_4_1</t>
+          <t>model_1_7_16</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.8727991167811621</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8938688190667626</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8918207459568023</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9067382652108107</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1407738924026489</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1018764898180962</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1355884969234467</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J50" t="n">
-        <v>0.117740772664547</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>model_8_8_9</t>
+          <t>model_1_7_15</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.8720854958027556</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8279034176566639</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8072085974746379</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8351024967852807</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G51" t="n">
-        <v>0.141563668847084</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1222344487905502</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2321133464574814</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1739417612552643</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>model_4_6_0</t>
+          <t>model_1_7_14</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.8716403039020291</v>
+        <v>0.9433176907738285</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8465689536200597</v>
+        <v>0.8565403448781441</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8572431011643303</v>
+        <v>0.681540111236284</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8544773277280201</v>
+        <v>0.807085539201823</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1420563608407974</v>
+        <v>0.06273061782121658</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1489864736795425</v>
+        <v>0.1749998778104782</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1971559971570969</v>
+        <v>0.2421683371067047</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1716549247503281</v>
+        <v>0.2066089808940887</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>model_8_8_8</t>
+          <t>model_1_7_12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.870824913671066</v>
+        <v>0.9432756098160839</v>
       </c>
       <c r="D53" t="n">
-        <v>0.830980314184131</v>
+        <v>0.8564174189538827</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8074261480122435</v>
+        <v>0.6816522043218851</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8363154889993976</v>
+        <v>0.8070496872247681</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1429587453603745</v>
+        <v>0.06277718394994736</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1200490519404411</v>
+        <v>0.1751498430967331</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2318513989448547</v>
+        <v>0.2420830875635147</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1726622432470322</v>
+        <v>0.2066473811864853</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>model_4_5_5</t>
+          <t>model_2_8_16</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.8705923885055119</v>
+        <v>0.9431029015982043</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9627824956513561</v>
+        <v>0.7842365719158906</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9285659520988272</v>
+        <v>0.8570300761795201</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9519742606619344</v>
+        <v>0.907646826507833</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1432161033153534</v>
+        <v>0.06296832114458084</v>
       </c>
       <c r="H54" t="n">
-        <v>0.04232411086559296</v>
+        <v>0.04795275628566742</v>
       </c>
       <c r="I54" t="n">
-        <v>0.04343681037425995</v>
+        <v>0.04668325185775757</v>
       </c>
       <c r="J54" t="n">
-        <v>0.04284770041704178</v>
+        <v>0.04735532030463219</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>model_8_8_7</t>
+          <t>model_2_8_15</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.869483471135874</v>
+        <v>0.9415400669703001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8333332014272888</v>
+        <v>0.7818598905668757</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8078357668436184</v>
+        <v>0.8641218314386552</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8373745339933983</v>
+        <v>0.9092258979601415</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1444433480501175</v>
+        <v>0.06469792127609253</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1183778718113899</v>
+        <v>0.04848096892237663</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2313582599163055</v>
+        <v>0.04436761885881424</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1715451031923294</v>
+        <v>0.04654562845826149</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>model_8_8_6</t>
+          <t>model_2_8_14</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.8680606486870677</v>
+        <v>0.9399358042836803</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8349267122205751</v>
+        <v>0.7791546207618018</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8084452250397836</v>
+        <v>0.8729499677483105</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8382693685985013</v>
+        <v>0.9112508269155412</v>
       </c>
       <c r="G56" t="n">
-        <v>0.146017998456955</v>
+        <v>0.06647336483001709</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1172460615634918</v>
+        <v>0.0490822046995163</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2306244820356369</v>
+        <v>0.0414850078523159</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1706011891365051</v>
+        <v>0.04550731554627419</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>model_8_8_5</t>
+          <t>model_2_8_13</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.8665660325867067</v>
+        <v>0.9380705154802378</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8358127747678302</v>
+        <v>0.7762038230533126</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8092775155646087</v>
+        <v>0.8780352402582813</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8390323491267573</v>
+        <v>0.9120982312993604</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1476720720529556</v>
+        <v>0.06853769719600677</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1166166961193085</v>
+        <v>0.04973800852894783</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2296224236488342</v>
+        <v>0.03982454165816307</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1697963625192642</v>
+        <v>0.04507280141115189</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>model_4_5_4</t>
+          <t>model_2_8_12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.8657210669523624</v>
+        <v>0.9360964429091412</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9548819188594513</v>
+        <v>0.7725214763870081</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9355506342270909</v>
+        <v>0.883106711121044</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9488830103433414</v>
+        <v>0.912773669946098</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1486072242259979</v>
+        <v>0.07072240859270096</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05130872875452042</v>
+        <v>0.05055640265345573</v>
       </c>
       <c r="I58" t="n">
-        <v>0.03918964415788651</v>
+        <v>0.03816857933998108</v>
       </c>
       <c r="J58" t="n">
-        <v>0.04560565575957298</v>
+        <v>0.04472646117210388</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>model_8_8_4</t>
+          <t>model_2_8_11</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.8649974076660396</v>
+        <v>0.934217480800039</v>
       </c>
       <c r="D59" t="n">
-        <v>0.835994381702303</v>
+        <v>0.7693147381160061</v>
       </c>
       <c r="E59" t="n">
-        <v>0.810331891556749</v>
+        <v>0.8917024594048842</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8396634916577768</v>
+        <v>0.914612345090716</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1494080871343613</v>
+        <v>0.0728018656373024</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1164877265691757</v>
+        <v>0.05126908794045448</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2283530086278915</v>
+        <v>0.03536185622215271</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1691306084394455</v>
+        <v>0.04378365725278854</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>model_8_8_3</t>
+          <t>model_2_8_10</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.8633617745881766</v>
+        <v>0.9320059591666146</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8355410581351564</v>
+        <v>0.7651033790362224</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8116050310109784</v>
+        <v>0.8947279623468111</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8401862040042861</v>
+        <v>0.9145543814922679</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1512182652950287</v>
+        <v>0.07524936646223068</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1168096959590912</v>
+        <v>0.05220505222678185</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2268202006816864</v>
+        <v>0.03437395021319389</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1685792207717896</v>
+        <v>0.04381337761878967</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>model_4_5_3</t>
+          <t>model_2_6_1</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.8632602380985358</v>
+        <v>0.9307786634340938</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9539104813686657</v>
+        <v>0.9276296086708635</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9364882083770711</v>
+        <v>0.8273391869092411</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9485282833981842</v>
+        <v>0.8737295079152819</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1513306349515915</v>
+        <v>0.07660762220621109</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0524134561419487</v>
+        <v>0.05456584692001343</v>
       </c>
       <c r="I61" t="n">
-        <v>0.03861953318119049</v>
+        <v>0.171784296631813</v>
       </c>
       <c r="J61" t="n">
-        <v>0.04592214152216911</v>
+        <v>0.1097274795174599</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>model_4_2_0</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.8626598352481127</v>
+        <v>0.9302577534446382</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9538021984529172</v>
+        <v>0.726170161700018</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9513597916738944</v>
+        <v>0.9174664890482581</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9538797514562144</v>
+        <v>0.8387992484885276</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1519950926303864</v>
+        <v>0.07718411833047867</v>
       </c>
       <c r="H62" t="n">
-        <v>0.04541244357824326</v>
+        <v>0.2769697606563568</v>
       </c>
       <c r="I62" t="n">
-        <v>0.03314222395420074</v>
+        <v>0.1248071789741516</v>
       </c>
       <c r="J62" t="n">
-        <v>0.03963784873485565</v>
+        <v>0.205363854765892</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>model_8_8_2</t>
+          <t>model_2_8_9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.8616560453108092</v>
+        <v>0.9298787270942404</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8344653326937272</v>
+        <v>0.7615403797369731</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8130942191578612</v>
+        <v>0.901922925173075</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8406025074995355</v>
+        <v>0.9158924136677132</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1531059890985489</v>
+        <v>0.07760357856750488</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1175737529993057</v>
+        <v>0.0529969185590744</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2250272631645203</v>
+        <v>0.03202461451292038</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1681400835514069</v>
+        <v>0.04312728345394135</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>model_4_5_2</t>
+          <t>model_2_6_0</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.8609785048628329</v>
+        <v>0.9288475749215899</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9499859646134268</v>
+        <v>0.9226391259529717</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9447493025654926</v>
+        <v>0.8291481305218934</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9485295216117264</v>
+        <v>0.8724118019901387</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1538558304309845</v>
+        <v>0.07874476909637451</v>
       </c>
       <c r="H64" t="n">
-        <v>0.05687646195292473</v>
+        <v>0.05832857638597488</v>
       </c>
       <c r="I64" t="n">
-        <v>0.033596221357584</v>
+        <v>0.1699845343828201</v>
       </c>
       <c r="J64" t="n">
-        <v>0.04592103138566017</v>
+        <v>0.1108725666999817</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>model_8_8_1</t>
+          <t>model_2_5_24</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.8598949745882826</v>
+        <v>0.92766036030759</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8328395116570735</v>
+        <v>0.8087717859904491</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8148081549401778</v>
+        <v>0.9141520183685451</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8409429344645512</v>
+        <v>0.8833433525680766</v>
       </c>
       <c r="G65" t="n">
-        <v>0.155054971575737</v>
+        <v>0.08005865663290024</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1187285184860229</v>
+        <v>0.1375091522932053</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2229637652635574</v>
+        <v>0.0877075269818306</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1677809953689575</v>
+        <v>0.1140730008482933</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>model_8_8_0</t>
+          <t>model_2_8_8</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.8580707227415433</v>
+        <v>0.9273431792972743</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8306908940316132</v>
+        <v>0.7567170909242034</v>
       </c>
       <c r="E66" t="n">
-        <v>0.816734037672754</v>
+        <v>0.9032106546441085</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8412116108681986</v>
+        <v>0.9151712044420116</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1570738852024078</v>
+        <v>0.0804096907377243</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1202546060085297</v>
+        <v>0.05406887456774712</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2206450700759888</v>
+        <v>0.03160414099693298</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1674975752830505</v>
+        <v>0.04349709302186966</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>model_4_5_1</t>
+          <t>model_2_5_23</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8565960338928156</v>
+        <v>0.9259834598074248</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9462682245670407</v>
+        <v>0.8118323832204719</v>
       </c>
       <c r="E67" t="n">
-        <v>0.949331305070986</v>
+        <v>0.9155204895417481</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9474902913326668</v>
+        <v>0.8852074467759135</v>
       </c>
       <c r="G67" t="n">
-        <v>0.158705934882164</v>
+        <v>0.0819144994020462</v>
       </c>
       <c r="H67" t="n">
-        <v>0.06110430508852005</v>
+        <v>0.1353083252906799</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0308100488036871</v>
+        <v>0.08630941808223724</v>
       </c>
       <c r="J67" t="n">
-        <v>0.04684821516275406</v>
+        <v>0.1122501939535141</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>model_4_5_0</t>
+          <t>model_2_6_2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.8563293528938029</v>
+        <v>0.9258945351342092</v>
       </c>
       <c r="D68" t="n">
-        <v>0.950603382839615</v>
+        <v>0.930767554552054</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9575940985897446</v>
+        <v>0.774963828688341</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9530658955987517</v>
+        <v>0.8469517086145939</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1590010821819305</v>
+        <v>0.08201291412115097</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05617432296276093</v>
+        <v>0.05219989642500877</v>
       </c>
       <c r="I68" t="n">
-        <v>0.02578570321202278</v>
+        <v>0.2238937765359879</v>
       </c>
       <c r="J68" t="n">
-        <v>0.04187376424670219</v>
+        <v>0.132997065782547</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Hidden Size=[21, 10], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>model_8_7_24</t>
+          <t>model_2_8_7</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.856187821030303</v>
+        <v>0.9249583968905311</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8625587978398525</v>
+        <v>0.7530308477789445</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8188377511747258</v>
+        <v>0.9099103423587842</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8420708109268974</v>
+        <v>0.916332723185644</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1591577082872391</v>
+        <v>0.08304893970489502</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1777963042259216</v>
+        <v>0.05488813295960426</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2925428152084351</v>
+        <v>0.029416523873806</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2317944765090942</v>
+        <v>0.04290150478482246</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>model_8_7_23</t>
+          <t>model_2_5_22</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8549492163773305</v>
+        <v>0.9244086874624322</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8635497498119582</v>
+        <v>0.8104957510354532</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8198160999953131</v>
+        <v>0.9198061120027666</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8430395582312636</v>
+        <v>0.886795029794517</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1605284959077835</v>
+        <v>0.08365730196237564</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1765144169330597</v>
+        <v>0.1362694650888443</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2909629344940186</v>
+        <v>0.08193095773458481</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2303726375102997</v>
+        <v>0.1106977760791779</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>model_8_7_22</t>
+          <t>model_1_7_7</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.8536685562317435</v>
+        <v>0.9239249499133564</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8644975313971386</v>
+        <v>0.8388923346842161</v>
       </c>
       <c r="E71" t="n">
-        <v>0.820808063113191</v>
+        <v>0.6982386929758124</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8439954289276872</v>
+        <v>0.8020224625864423</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1619457900524139</v>
+        <v>0.0841926708817482</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1752883344888687</v>
+        <v>0.1965278834104538</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2893610894680023</v>
+        <v>0.2294701337814331</v>
       </c>
       <c r="J71" t="n">
-        <v>0.2289696931838989</v>
+        <v>0.2120314687490463</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>model_8_7_21</t>
+          <t>model_2_5_21</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.8523525995066146</v>
+        <v>0.9225590615870078</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8653752802056003</v>
+        <v>0.8081660759319569</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8218211533269938</v>
+        <v>0.9224629379277567</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8449294588833809</v>
+        <v>0.8871933859304664</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1634021550416946</v>
+        <v>0.08570430427789688</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1741528660058975</v>
+        <v>0.1379446983337402</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2877251803874969</v>
+        <v>0.07921658456325531</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2275988012552261</v>
+        <v>0.1103082448244095</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>model_8_7_20</t>
+          <t>model_2_8_6</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.850981590277394</v>
+        <v>0.9222193407067987</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8662073371636797</v>
+        <v>0.7483770934150352</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8228449707741621</v>
+        <v>0.9111076169151863</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8458479503633276</v>
+        <v>0.9156233642806266</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1649194657802582</v>
+        <v>0.08608026802539825</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1730764806270599</v>
+        <v>0.05592241510748863</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2860718965530396</v>
+        <v>0.02902558445930481</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2262507230043411</v>
+        <v>0.04326524212956429</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>model_8_7_19</t>
+          <t>model_2_9_0</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.8495874987429368</v>
+        <v>0.9212101422304856</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8669784033730819</v>
+        <v>0.7799780409876145</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8239228075763707</v>
+        <v>0.5386484082878349</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8467656066256115</v>
+        <v>0.7557627341576276</v>
       </c>
       <c r="G74" t="n">
-        <v>0.166462317109108</v>
+        <v>0.08719716221094131</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1720790266990662</v>
+        <v>0.3738993406295776</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2843313813209534</v>
+        <v>0.09919924288988113</v>
       </c>
       <c r="J74" t="n">
-        <v>0.224903866648674</v>
+        <v>0.2446278929710388</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>model_8_7_18</t>
+          <t>model_2_8_5</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.8481309550942515</v>
+        <v>0.9210046762752879</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8676718071961249</v>
+        <v>0.7472584134942016</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8249773130627929</v>
+        <v>0.9367061909453079</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8476353148809123</v>
+        <v>0.9230383356477879</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1680742800235748</v>
+        <v>0.08742453902959824</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1711820363998413</v>
+        <v>0.05617104098200798</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2826285362243652</v>
+        <v>0.02066700905561447</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2236274033784866</v>
+        <v>0.03946311771869659</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>model_8_7_17</t>
+          <t>model_2_5_20</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.8466515448631942</v>
+        <v>0.9200475591943864</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8683127019493286</v>
+        <v>0.8059416825316688</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8260974169974062</v>
+        <v>0.921133031688218</v>
       </c>
       <c r="F76" t="n">
-        <v>0.848514291347686</v>
+        <v>0.8856743188658536</v>
       </c>
       <c r="G76" t="n">
-        <v>0.16971156001091</v>
+        <v>0.08848379552364349</v>
       </c>
       <c r="H76" t="n">
-        <v>0.170352965593338</v>
+        <v>0.1395442187786102</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2808198034763336</v>
+        <v>0.08057529479265213</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2223372906446457</v>
+        <v>0.1117936596274376</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 15], regularizer=0.02, learning_rate=0.01</t>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>model_1_7_6</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.919611643563079</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8356564952796917</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.699107420154027</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.8003630779985884</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.08896622806787491</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.2004751265048981</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.2288095057010651</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.2138086408376694</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>model_2_5_19</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9168458193916134</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.8025362355650153</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.9149535789620166</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.88130981230034</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.09202717989683151</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.1419930309057236</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.08688860386610031</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1160615086555481</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>model_2_8_4</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9163039372403068</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.7381011290232522</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9411573993644148</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9222706421746307</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.09262687712907791</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0582062192261219</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.01921357959508896</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.03985676169395447</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>model_1_7_5</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.9135297534245534</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.8381252563875318</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7512429101699851</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.8192717317888574</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.09569708257913589</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.1974636018276215</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.1891638189554214</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.1935577094554901</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>model_2_5_18</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.913462862542386</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.8004155265145854</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.9068453376699321</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8764974749956556</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.09577111154794693</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.1435179859399796</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.09517247974872589</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.1207672581076622</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>model_2_5_17</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.910191661714284</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.7982976647824784</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.8989926327959239</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.8718119090993346</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.09939136356115341</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.1450409144163132</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.1031952798366547</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.1253490597009659</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>model_2_8_3</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.9094802854176854</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.7254305186038378</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9234097518097909</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9140444527829711</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.1001786515116692</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.06102222204208374</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.02500863000750542</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.04407485201954842</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>model_1_4_4</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9083193919032991</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.8427969254031282</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5061694448159831</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.8096083918174918</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.1014634221792221</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.1305499672889709</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.08926913142204285</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.1111237406730652</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>model_2_8_2</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.9081267306446854</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.7264464811955673</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9517301931448993</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.9227643181610304</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.1016766354441643</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.06079643219709396</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.01576129905879498</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.03960362076759338</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>model_1_7_4</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9070790067943266</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.8318548937315535</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7797414964243239</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.8250125513993292</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.1028361544013023</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.2051125317811966</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.1674924790859222</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.187409371137619</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>model_2_5_16</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9065717193963164</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7962066193032877</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8905291518856999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.8668366875894102</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.1033975705504417</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.1465445309877396</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.111842080950737</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.1302140951156616</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>model_2_8_1</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.9055847413344444</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.7224576756801415</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.9662046290298864</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.926186753442389</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.1044898703694344</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.06168292090296745</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.01103503257036209</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.03784872218966484</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>model_2_6_3</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9051823494024952</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9311369811036994</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.6022426447539764</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.7540615857503122</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.1049351841211319</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.05192135646939278</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.3957381248474121</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.2137174159288406</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>model_2_5_15</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9028691277839473</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.7888586191914766</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.8844267924199788</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.8609761019689439</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.1074952483177185</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.1518283784389496</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.1180766299366951</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1359448879957199</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>model_2_8_0</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9023468838904651</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.7162734937975124</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9716078872198831</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9263871441940379</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.1080732271075249</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.06305733323097229</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.009270733222365379</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.03774597123265266</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>model_1_9_1</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9008683353133761</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.6562294261308546</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.8985857639664496</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.7988531637265018</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.1097095385193825</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.3477124869823456</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.1533586084842682</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.256253719329834</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>model_1_7_3</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.8988347642980856</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.8209980780654498</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8136582971749554</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.8297987307115229</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.1119601055979729</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.2183562517166138</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.1417009234428406</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.1822834312915802</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>model_2_5_14</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.8985020618974016</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.774746607575112</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.8798641618645109</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.8532383881489957</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.1123283058404922</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.1619760990142822</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.1227380931377411</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.1435112208127975</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>

--- a/nuno-dataset/test-oxigen-03/better_results.xlsx
+++ b/nuno-dataset/test-oxigen-03/better_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,3628 +487,2380 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>model_1_5_1</t>
+          <t>model_2_1_12</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9649195556787628</v>
+        <v>0.9042556765986193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8208618240053256</v>
+        <v>0.9068391933725559</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9245039684296985</v>
+        <v>0.7952205832946535</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8491779229671435</v>
+        <v>0.8540420442534837</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03882371634244919</v>
+        <v>0.1059607490897179</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1336030215024948</v>
+        <v>0.09914403408765793</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02273185178637505</v>
+        <v>0.2204063385725021</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08142784237861633</v>
+        <v>0.1562085598707199</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>model_1_5_0</t>
+          <t>model_2_1_11</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9637280912094704</v>
+        <v>0.9036507778830261</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8208597363202955</v>
+        <v>0.9112670016197113</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9713424578390354</v>
+        <v>0.8035751708739478</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8614686804384116</v>
+        <v>0.8603268817784069</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04014231637120247</v>
+        <v>0.1066301986575127</v>
       </c>
       <c r="H3" t="n">
-        <v>0.133604571223259</v>
+        <v>0.09443184733390808</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0086287846788764</v>
+        <v>0.2114141881465912</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07479214668273926</v>
+        <v>0.149482324719429</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>model_1_5_2</t>
+          <t>model_2_1_13</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9636299407095074</v>
+        <v>0.9035433191637346</v>
       </c>
       <c r="D4" t="n">
-        <v>0.816152088439269</v>
+        <v>0.9081659634270302</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8419319592186862</v>
+        <v>0.7864897744747291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.824062530217048</v>
+        <v>0.8506083978555575</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04025093838572502</v>
+        <v>0.1067491248250008</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1371155977249146</v>
+        <v>0.09773204475641251</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04759427905082703</v>
+        <v>0.2298033833503723</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09498747438192368</v>
+        <v>0.1598833501338959</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>model_1_5_3</t>
+          <t>model_2_1_14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9611247985587379</v>
+        <v>0.9007639624505491</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8092496473586204</v>
+        <v>0.9079993601891658</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7462948028309362</v>
+        <v>0.7623642028296046</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7939130960828302</v>
+        <v>0.8391029650951306</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04302338883280754</v>
+        <v>0.1098250523209572</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1422634869813919</v>
+        <v>0.0979093611240387</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07639062404632568</v>
+        <v>0.2557699978351593</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1112649664282799</v>
+        <v>0.1721967756748199</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>model_1_5_4</t>
+          <t>model_2_1_15</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9578499119841386</v>
+        <v>0.8998752523431346</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8023096356566647</v>
+        <v>0.8829499652744839</v>
       </c>
       <c r="E6" t="n">
-        <v>0.64068904748967</v>
+        <v>0.7697345154189837</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7611229121334023</v>
+        <v>0.8294041052993719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04664772748947144</v>
+        <v>0.1108085960149765</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1474394202232361</v>
+        <v>0.1245675459504128</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1081885173916817</v>
+        <v>0.2478372603654861</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1289681643247604</v>
+        <v>0.1825767904520035</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>model_1_9_6</t>
+          <t>model_2_1_16</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9576542538904927</v>
+        <v>0.8993504524337083</v>
       </c>
       <c r="D7" t="n">
-        <v>0.805590747075272</v>
+        <v>0.8780564710669676</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9328828846282975</v>
+        <v>0.7680183890295552</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8807934453493941</v>
+        <v>0.8260157255795157</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04686426371335983</v>
+        <v>0.1113893985748291</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1966384947299957</v>
+        <v>0.1297753155231476</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1014945060014725</v>
+        <v>0.2496843338012695</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1518647819757462</v>
+        <v>0.1862031370401382</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>model_1_9_7</t>
+          <t>model_2_1_10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9572019305237089</v>
+        <v>0.8990541628606806</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8095875707938381</v>
+        <v>0.9098498537026802</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9248011959883484</v>
+        <v>0.7849861017237352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8779590023641022</v>
+        <v>0.8507833507612881</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04736485332250595</v>
+        <v>0.1117172911763191</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1925958395004272</v>
+        <v>0.09594001621007919</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1137156337499619</v>
+        <v>0.2314218133687973</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1554757654666901</v>
+        <v>0.159696102142334</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>model_1_9_8</t>
+          <t>model_2_1_19</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9551089924576718</v>
+        <v>0.8988169486044639</v>
       </c>
       <c r="D9" t="n">
-        <v>0.815495422972264</v>
+        <v>0.8718615664829095</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9091754858436001</v>
+        <v>0.7604102690061328</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8717137570536164</v>
+        <v>0.8191539210548899</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04968111962080002</v>
+        <v>0.1119798272848129</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1866202354431152</v>
+        <v>0.1363680958747864</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1373448371887207</v>
+        <v>0.2578730583190918</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1634319871664047</v>
+        <v>0.193546861410141</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>model_1_9_9</t>
+          <t>model_2_1_9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9530107160534541</v>
+        <v>0.8984512078243851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8097270846877849</v>
+        <v>0.9167931954073298</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9025395032345322</v>
+        <v>0.8143834554107018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8655827794624354</v>
+        <v>0.8683511123095917</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05200329050421715</v>
+        <v>0.112384594976902</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1924547255039215</v>
+        <v>0.08855073899030685</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1473797559738159</v>
+        <v>0.1997811198234558</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1712425947189331</v>
+        <v>0.1408945471048355</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>model_1_9_10</t>
+          <t>model_2_1_18</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9523012965767345</v>
+        <v>0.8984405535182935</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8091497162129547</v>
+        <v>0.8656028137641409</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8993068698161901</v>
+        <v>0.7654921996413266</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8635343032249139</v>
+        <v>0.8182641982764471</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05278841033577919</v>
+        <v>0.1123963743448257</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1930387169122696</v>
+        <v>0.1430288106203079</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1522681415081024</v>
+        <v>0.2524033188819885</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1738522946834564</v>
+        <v>0.1944990754127502</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>model_1_9_3</t>
+          <t>model_2_1_17</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.952249331988145</v>
+        <v>0.8983212816689401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8053575548080281</v>
+        <v>0.8646696548046996</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9149377670351064</v>
+        <v>0.7685533387376942</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8706709378725545</v>
+        <v>0.8192215541393486</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05284592136740685</v>
+        <v>0.112528383731842</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1968743503093719</v>
+        <v>0.1440218985080719</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1286311000585556</v>
+        <v>0.2491085827350616</v>
       </c>
       <c r="J12" t="n">
-        <v>0.164760485291481</v>
+        <v>0.1934744864702225</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>model_1_9_11</t>
+          <t>model_2_1_20</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9518200916561613</v>
+        <v>0.8981364556344177</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8087374472988399</v>
+        <v>0.8550436725887401</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8971442506899887</v>
+        <v>0.7712064421435731</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8621526654609102</v>
+        <v>0.8154096496026148</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05332096293568611</v>
+        <v>0.1127329245209694</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1934557110071182</v>
+        <v>0.1542661041021347</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1555384695529938</v>
+        <v>0.2462530136108398</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1756124496459961</v>
+        <v>0.1975540816783905</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>model_1_9_12</t>
+          <t>model_2_2_1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9517473115218898</v>
+        <v>0.8973769895886587</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8086206756763445</v>
+        <v>0.8627534162346273</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8968578234976722</v>
+        <v>0.6296950737279476</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8619439500001829</v>
+        <v>0.8112967864593741</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05340150371193886</v>
+        <v>0.113573431968689</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1935738176107407</v>
+        <v>0.2392262071371078</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1559715867042542</v>
+        <v>0.2312825918197632</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1758783459663391</v>
+        <v>0.2354880273342133</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>model_1_9_13</t>
+          <t>model_2_1_22</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9516081632125706</v>
+        <v>0.8937873492453674</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8086385003941425</v>
+        <v>0.8326380643530155</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8961296060029148</v>
+        <v>0.7552037120546017</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8615446701724125</v>
+        <v>0.7960410388808199</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05355549976229668</v>
+        <v>0.1175461187958717</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1935557872056961</v>
+        <v>0.178110733628273</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1570728123188019</v>
+        <v>0.2634769380092621</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1763869971036911</v>
+        <v>0.2182829529047012</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>model_1_9_14</t>
+          <t>model_2_1_21</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9515471085286584</v>
+        <v>0.8935970810486996</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8085233925895505</v>
+        <v>0.8331546712920976</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8959039657898101</v>
+        <v>0.7563021431538348</v>
       </c>
       <c r="F16" t="n">
-        <v>0.861369779622846</v>
+        <v>0.7968327861310769</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05362307280302048</v>
+        <v>0.1177566722035408</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1936722099781036</v>
+        <v>0.1775609254837036</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1574140191078186</v>
+        <v>0.2622946798801422</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1766098290681839</v>
+        <v>0.2174356132745743</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>model_1_9_15</t>
+          <t>model_2_2_0</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9513959184463432</v>
+        <v>0.8925475457440685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8083043486607613</v>
+        <v>0.8846743567851052</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8952931280139554</v>
+        <v>0.6300945789880441</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8609368952474156</v>
+        <v>0.8276004217625232</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05379039794206619</v>
+        <v>0.11891820281744</v>
       </c>
       <c r="H17" t="n">
-        <v>0.193893775343895</v>
+        <v>0.2010171711444855</v>
       </c>
       <c r="I17" t="n">
-        <v>0.158337727189064</v>
+        <v>0.2310330867767334</v>
       </c>
       <c r="J17" t="n">
-        <v>0.177161306142807</v>
+        <v>0.2151422798633575</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>model_2_8_24</t>
+          <t>model_2_1_23</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9513499043209158</v>
+        <v>0.8913932770474245</v>
       </c>
       <c r="D18" t="n">
-        <v>0.785038835643716</v>
+        <v>0.8293566097091761</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7647445298514287</v>
+        <v>0.7396431006724893</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8801750693946875</v>
+        <v>0.7869490280531852</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05384132266044617</v>
+        <v>0.120195634663105</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04777445644140244</v>
+        <v>0.1816029101610184</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07681678235530853</v>
+        <v>0.2802249789237976</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06144182756543159</v>
+        <v>0.2280134856700897</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>model_1_9_16</t>
+          <t>model_2_1_24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9513478006512934</v>
+        <v>0.8905996651661332</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8082841984090939</v>
+        <v>0.8246374913604554</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8950617475480358</v>
+        <v>0.738216027853968</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8607990626373975</v>
+        <v>0.7837895097723058</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05384364724159241</v>
+        <v>0.1210739389061928</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1939141452312469</v>
+        <v>0.1866251081228256</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1586876213550568</v>
+        <v>0.281760960817337</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1773368865251541</v>
+        <v>0.2313949018716812</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>model_1_9_17</t>
+          <t>model_2_1_8</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9513420895239073</v>
+        <v>0.8862404124468157</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8082679539776956</v>
+        <v>0.9070328528199344</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8950443223996429</v>
+        <v>0.816570119589257</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8607827375804457</v>
+        <v>0.8642477795894165</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0538499690592289</v>
+        <v>0.1258983463048935</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1939305812120438</v>
+        <v>0.09893794357776642</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1587139815092087</v>
+        <v>0.1974275857210159</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1773576885461807</v>
+        <v>0.1452860534191132</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>model_1_9_23</t>
+          <t>model_2_1_7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9513049481993592</v>
+        <v>0.8857250262925669</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8082284712361631</v>
+        <v>0.9197842955324768</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8948834791347069</v>
+        <v>0.8028659877640135</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8606764062188234</v>
+        <v>0.8644751494565961</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05389107018709183</v>
+        <v>0.1264687329530716</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1939705163240433</v>
+        <v>0.08536753058433533</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1589571982622147</v>
+        <v>0.212177500128746</v>
       </c>
       <c r="J21" t="n">
-        <v>0.177493155002594</v>
+        <v>0.14504274725914</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>model_1_9_22</t>
+          <t>model_3_6_0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9513049481993592</v>
+        <v>0.8837758487129217</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8082284712361631</v>
+        <v>0.9013004230709482</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8948834791347069</v>
+        <v>0.8682652726571384</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8606764062188234</v>
+        <v>0.8871913622955679</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05389107018709183</v>
+        <v>0.1286258846521378</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1939705163240433</v>
+        <v>0.1199068203568459</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1589571982622147</v>
+        <v>0.151193380355835</v>
       </c>
       <c r="J22" t="n">
-        <v>0.177493155002594</v>
+        <v>0.1346301138401031</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>model_1_9_21</t>
+          <t>model_2_6_0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9513049481993592</v>
+        <v>0.8820101977122485</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8082284712361631</v>
+        <v>0.7962179410355678</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8948834791347069</v>
+        <v>0.965960320066455</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8606764062188234</v>
+        <v>0.9195561399999069</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05389107018709183</v>
+        <v>0.1305799335241318</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1939705163240433</v>
+        <v>0.1064834147691727</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1589571982622147</v>
+        <v>0.05307972431182861</v>
       </c>
       <c r="J23" t="n">
-        <v>0.177493155002594</v>
+        <v>0.08135218173265457</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>model_1_9_20</t>
+          <t>model_8_6_4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9513049481993592</v>
+        <v>0.8817320422830115</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8082284712361631</v>
+        <v>0.8421093774005822</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8948834791347069</v>
+        <v>0.8934617055991265</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8606764062188234</v>
+        <v>0.8731753198801999</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05389107018709183</v>
+        <v>0.1308877766132355</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1939705163240433</v>
+        <v>0.1745244860649109</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1589571982622147</v>
+        <v>0.1353036463260651</v>
       </c>
       <c r="J24" t="n">
-        <v>0.177493155002594</v>
+        <v>0.1560678333044052</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 8], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>model_1_9_19</t>
+          <t>model_2_6_1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9513049481993592</v>
+        <v>0.8811086799935136</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8082284712361631</v>
+        <v>0.7429142015021164</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8948834791347069</v>
+        <v>0.9660562165825356</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8606764062188234</v>
+        <v>0.9050446452510166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05389107018709183</v>
+        <v>0.131577655673027</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1939705163240433</v>
+        <v>0.134336531162262</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1589571982622147</v>
+        <v>0.05293019115924835</v>
       </c>
       <c r="J25" t="n">
-        <v>0.177493155002594</v>
+        <v>0.09602753072977066</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>model_1_9_18</t>
+          <t>model_2_2_6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9513049481993592</v>
+        <v>0.8800477504666624</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8082284712361631</v>
+        <v>0.7929011449150739</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8948834791347069</v>
+        <v>0.5366040317752414</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8606764062188234</v>
+        <v>0.7377190788241508</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05389107018709183</v>
+        <v>0.1327517926692963</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1939705163240433</v>
+        <v>0.3609814941883087</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1589571982622147</v>
+        <v>0.2894247770309448</v>
       </c>
       <c r="J26" t="n">
-        <v>0.177493155002594</v>
+        <v>0.3273077309131622</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>model_1_9_24</t>
+          <t>model_2_2_4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9513049481993592</v>
+        <v>0.8797185185505862</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8082284712361631</v>
+        <v>0.7983689915626482</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8948834791347069</v>
+        <v>0.543991777854598</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8606764062188234</v>
+        <v>0.7435022365107815</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05389107018709183</v>
+        <v>0.1331161558628082</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1939705163240433</v>
+        <v>0.3514508306980133</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1589571982622147</v>
+        <v>0.2848106026649475</v>
       </c>
       <c r="J27" t="n">
-        <v>0.177493155002594</v>
+        <v>0.3200907409191132</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>model_2_8_23</t>
+          <t>model_2_2_7</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9506986148687629</v>
+        <v>0.8780977896513478</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7865355979080132</v>
+        <v>0.789266474677627</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7792834386457412</v>
+        <v>0.518662666996583</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8848757466061974</v>
+        <v>0.7308057478668393</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05456211045384407</v>
+        <v>0.1349098235368729</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04744180291891098</v>
+        <v>0.3673168420791626</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07206947356462479</v>
+        <v>0.3006304800510406</v>
       </c>
       <c r="J28" t="n">
-        <v>0.05903149396181107</v>
+        <v>0.3359350264072418</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>model_2_8_22</t>
+          <t>model_2_2_3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9499687368869044</v>
+        <v>0.8780950030159612</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7876189927442742</v>
+        <v>0.7965347319337087</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7934931466682521</v>
+        <v>0.5342378114222629</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8893819281947337</v>
+        <v>0.7398487215864695</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05536986514925957</v>
+        <v>0.1349129229784012</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04720102250576019</v>
+        <v>0.3546479940414429</v>
       </c>
       <c r="I29" t="n">
-        <v>0.06742964684963226</v>
+        <v>0.2909026741981506</v>
       </c>
       <c r="J29" t="n">
-        <v>0.05672089010477066</v>
+        <v>0.3246500790119171</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>model_2_8_21</t>
+          <t>model_2_2_8</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9490920955812517</v>
+        <v>0.8777146550567138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7883181114588015</v>
+        <v>0.7882840715090431</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8058234602935764</v>
+        <v>0.514024332686132</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8932390268378358</v>
+        <v>0.7289868416386315</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0563400499522686</v>
+        <v>0.135333850979805</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04704564437270164</v>
+        <v>0.3690292239189148</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06340349465608597</v>
+        <v>0.3035274744033813</v>
       </c>
       <c r="J30" t="n">
-        <v>0.05474310368299484</v>
+        <v>0.3382049202919006</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>model_1_7_9</t>
+          <t>model_2_2_5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9488767126491946</v>
+        <v>0.876916785051677</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8713820763889764</v>
+        <v>0.7888343828261121</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7158100961004291</v>
+        <v>0.5138552602768867</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8274864232277883</v>
+        <v>0.729354044101828</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05657841637730598</v>
+        <v>0.13621686398983</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1568951308727264</v>
+        <v>0.3680700063705444</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2161082029342651</v>
+        <v>0.3036330342292786</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1847598701715469</v>
+        <v>0.3377466797828674</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>model_1_9_5</t>
+          <t>model_2_1_6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9485584054334892</v>
+        <v>0.8764518462756793</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8099095443455607</v>
+        <v>0.9081504696181201</v>
       </c>
       <c r="E32" t="n">
-        <v>0.888193497701713</v>
+        <v>0.787925191108672</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8576460868594884</v>
+        <v>0.8512798294683896</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05693068727850914</v>
+        <v>0.1367314010858536</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1922701746225357</v>
+        <v>0.09774854779243469</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1690737903118134</v>
+        <v>0.2282584309577942</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1813536882400513</v>
+        <v>0.1591647565364838</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>model_2_8_20</t>
+          <t>model_8_6_3</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9481470374910766</v>
+        <v>0.8763693365191842</v>
       </c>
       <c r="D33" t="n">
-        <v>0.788443713387998</v>
+        <v>0.8754402992909394</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8178689481903682</v>
+        <v>0.8936551451746334</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8968778872401223</v>
+        <v>0.8891192802606235</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05738594755530357</v>
+        <v>0.1368227154016495</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04701773449778557</v>
+        <v>0.1376821398735046</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05947033688426018</v>
+        <v>0.1350579857826233</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05287722870707512</v>
+        <v>0.1364475190639496</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 8], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>model_1_7_10</t>
+          <t>model_8_6_8</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9477402256766058</v>
+        <v>0.8752688831570924</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8706919007415641</v>
+        <v>0.6268920930512674</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7040193420504428</v>
+        <v>0.8971784824667641</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8231302726023886</v>
+        <v>0.7726373188209292</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05783616751432419</v>
+        <v>0.1380405873060226</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1577370464801788</v>
+        <v>0.412415087223053</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2250743210315704</v>
+        <v>0.1305833458900452</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1894252747297287</v>
+        <v>0.2797878086566925</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 8], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>model_2_8_19</t>
+          <t>model_2_2_2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9470454447312686</v>
+        <v>0.8743359195975295</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7881949231330927</v>
+        <v>0.8022989494009176</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8281629352605947</v>
+        <v>0.5083274310150998</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8999048204999844</v>
+        <v>0.7380084628191592</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05860509350895882</v>
+        <v>0.1390731036663055</v>
       </c>
       <c r="H35" t="n">
-        <v>0.04707302525639534</v>
+        <v>0.3446007668972015</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05610909312963486</v>
+        <v>0.3070856034755707</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05132513493299484</v>
+        <v>0.3269465863704681</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>model_1_7_8</t>
+          <t>model_8_6_10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9464189798872124</v>
+        <v>0.8740581282681877</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8663198080509205</v>
+        <v>0.602742733476139</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7165429084890363</v>
+        <v>0.8620153902245719</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8246790290467113</v>
+        <v>0.7440762766303564</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05929839611053467</v>
+        <v>0.139380544424057</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1630703657865524</v>
+        <v>0.4391085505485535</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2155509442090988</v>
+        <v>0.1752404719591141</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1877665668725967</v>
+        <v>0.3149344325065613</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 8], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>model_1_9_4</t>
+          <t>model_8_6_2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9460729196989982</v>
+        <v>0.8739640820388429</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7994619146243326</v>
+        <v>0.8966110987959381</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8859253060889851</v>
+        <v>0.8936838224821964</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8519876678483334</v>
+        <v>0.8992010825486714</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05968138575553894</v>
+        <v>0.1394846141338348</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2028376162052155</v>
+        <v>0.114280991256237</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1725037544965744</v>
+        <v>0.1350215673446655</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1885622888803482</v>
+        <v>0.1240410506725311</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 8], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>model_2_8_18</t>
+          <t>model_8_6_11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9458472276534998</v>
+        <v>0.8736538089120237</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7872398048254923</v>
+        <v>0.6004082041619491</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8386400831000471</v>
+        <v>0.8588965306982148</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9028240776902633</v>
+        <v>0.7414507025363919</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05993116274476051</v>
+        <v>0.1398279964923859</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0472852997481823</v>
+        <v>0.4416890144348145</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05268804728984833</v>
+        <v>0.1792014241218567</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04982824251055717</v>
+        <v>0.3181654214859009</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 8], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>model_2_8_17</t>
+          <t>model_3_5_2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9445345286126616</v>
+        <v>0.8734695819837774</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7858425449727815</v>
+        <v>0.5266562864655107</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8483334802769711</v>
+        <v>0.8227072918585254</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9054094110383435</v>
+        <v>0.7484238455255359</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0613839291036129</v>
+        <v>0.1400318890810013</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04759583622217178</v>
+        <v>0.1871706247329712</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04952290654182434</v>
+        <v>0.2320891916751862</v>
       </c>
       <c r="J39" t="n">
-        <v>0.04850258305668831</v>
+        <v>0.2083087265491486</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>model_1_7_11</t>
+          <t>model_2_2_10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9438342384087635</v>
+        <v>0.865242518155297</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8616196731941705</v>
+        <v>0.7391143540096398</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6781043347268905</v>
+        <v>0.4834287678445696</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8090012547916549</v>
+        <v>0.6854221303112775</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06215894594788551</v>
+        <v>0.1491368114948273</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1688038408756256</v>
+        <v>0.4547339975833893</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2447810173034668</v>
+        <v>0.3226366341114044</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2045572698116302</v>
+        <v>0.3925705552101135</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>model_1_7_13</t>
+          <t>model_2_2_11</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.943392144435148</v>
+        <v>0.8642073362512148</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8566157056036362</v>
+        <v>0.7348448213693303</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6821628216113949</v>
+        <v>0.4813548275460866</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8073395628171234</v>
+        <v>0.6817765817571673</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06264821439981461</v>
+        <v>0.1502824872732162</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1749079525470734</v>
+        <v>0.4621759653091431</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2416947931051254</v>
+        <v>0.3239319920539856</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2063369154930115</v>
+        <v>0.3971199095249176</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>model_1_7_24</t>
+          <t>model_4_6_0</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8631182615682991</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.9240060617923791</v>
       </c>
       <c r="E42" t="n">
-        <v>0.681540111236284</v>
+        <v>0.7224822732568152</v>
       </c>
       <c r="F42" t="n">
-        <v>0.807085539201823</v>
+        <v>0.890746741262196</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.1514877527952194</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.04215148836374283</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.05458599328994751</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.04800300300121307</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>model_1_7_17</t>
+          <t>model_8_6_5</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8617758509620013</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.6674388776891764</v>
       </c>
       <c r="E43" t="n">
-        <v>0.681540111236284</v>
+        <v>0.8886868632042705</v>
       </c>
       <c r="F43" t="n">
-        <v>0.807085539201823</v>
+        <v>0.7877945101551763</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.1529734134674072</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.3675966560840607</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.1413677036762238</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.2611356973648071</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 8], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>model_1_7_22</t>
+          <t>model_2_2_9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8609400549811571</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.7352123933674206</v>
       </c>
       <c r="E44" t="n">
-        <v>0.681540111236284</v>
+        <v>0.4470427900853067</v>
       </c>
       <c r="F44" t="n">
-        <v>0.807085539201823</v>
+        <v>0.6739669324770168</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.1538983732461929</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.46153524518013</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.3453623652458191</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.4068658351898193</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>model_1_7_21</t>
+          <t>model_8_6_1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8551171577973372</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.8960542267044052</v>
       </c>
       <c r="E45" t="n">
-        <v>0.681540111236284</v>
+        <v>0.924920565926485</v>
       </c>
       <c r="F45" t="n">
-        <v>0.807085539201823</v>
+        <v>0.9141066705387091</v>
       </c>
       <c r="G45" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.1603426039218903</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.1148965358734131</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.09535089135169983</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.1056985408067703</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 8], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>model_1_7_20</t>
+          <t>model_4_9_19</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8549912597910093</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.8644862204569812</v>
       </c>
       <c r="E46" t="n">
-        <v>0.681540111236284</v>
+        <v>0.7645451552009284</v>
       </c>
       <c r="F46" t="n">
-        <v>0.807085539201823</v>
+        <v>0.8450659323644599</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.1604819446802139</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.2233718782663345</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.2990478873252869</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.2589837312698364</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>model_1_7_19</t>
+          <t>model_4_9_18</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8548823301265982</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.8646534453092934</v>
       </c>
       <c r="E47" t="n">
-        <v>0.681540111236284</v>
+        <v>0.7655825107626992</v>
       </c>
       <c r="F47" t="n">
-        <v>0.807085539201823</v>
+        <v>0.84552210475294</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.1606024950742722</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.2230962067842484</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.2977303564548492</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.2582212090492249</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>model_1_7_18</t>
+          <t>model_4_9_17</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8547519498544827</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.8648053119392256</v>
       </c>
       <c r="E48" t="n">
-        <v>0.681540111236284</v>
+        <v>0.7665617073108123</v>
       </c>
       <c r="F48" t="n">
-        <v>0.807085539201823</v>
+        <v>0.8459526933648536</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.1607467979192734</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.2228458970785141</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.2964867055416107</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.2575014233589172</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>model_1_7_23</t>
+          <t>model_2_1_5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8546491693709257</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.898360888215334</v>
       </c>
       <c r="E49" t="n">
-        <v>0.681540111236284</v>
+        <v>0.7885077773095939</v>
       </c>
       <c r="F49" t="n">
-        <v>0.807085539201823</v>
+        <v>0.8464016594464521</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.160860538482666</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.1081668511033058</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.2276313900947571</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.164385512471199</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>model_1_7_16</t>
+          <t>model_4_9_16</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8546394465487667</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.86510234424345</v>
       </c>
       <c r="E50" t="n">
-        <v>0.681540111236284</v>
+        <v>0.7674066654330998</v>
       </c>
       <c r="F50" t="n">
-        <v>0.807085539201823</v>
+        <v>0.8464080789916241</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.160871297121048</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.2223562896251678</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.2954135239124298</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.2567402124404907</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>model_1_7_15</t>
+          <t>model_4_9_15</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8544902927381683</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.865287289791997</v>
       </c>
       <c r="E51" t="n">
-        <v>0.681540111236284</v>
+        <v>0.7682343465829673</v>
       </c>
       <c r="F51" t="n">
-        <v>0.807085539201823</v>
+        <v>0.8468055469622089</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.1610363572835922</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.2220514416694641</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.2943623065948486</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.2560757994651794</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>model_1_7_14</t>
+          <t>model_4_9_14</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9433176907738285</v>
+        <v>0.8543126081394369</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8565403448781441</v>
+        <v>0.8655081762242123</v>
       </c>
       <c r="E52" t="n">
-        <v>0.681540111236284</v>
+        <v>0.768855336651161</v>
       </c>
       <c r="F52" t="n">
-        <v>0.807085539201823</v>
+        <v>0.8471404804023854</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06273061782121658</v>
+        <v>0.1612330228090286</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1749998778104782</v>
+        <v>0.2216873466968536</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2421683371067047</v>
+        <v>0.2935736179351807</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2066089808940887</v>
+        <v>0.2555159330368042</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>model_1_7_12</t>
+          <t>model_4_9_13</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.9432756098160839</v>
+        <v>0.8540759574391421</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8564174189538827</v>
+        <v>0.8655626185126806</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6816522043218851</v>
+        <v>0.7694036706025482</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8070496872247681</v>
+        <v>0.8473649429892433</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06277718394994736</v>
+        <v>0.1614948958158493</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1751498430967331</v>
+        <v>0.2215976119041443</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2420830875635147</v>
+        <v>0.2928771376609802</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2066473811864853</v>
+        <v>0.2551407516002655</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>model_2_8_16</t>
+          <t>model_4_9_12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.9431029015982043</v>
+        <v>0.8538251844281318</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7842365719158906</v>
+        <v>0.8656263880151385</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8570300761795201</v>
+        <v>0.7698512874839518</v>
       </c>
       <c r="F54" t="n">
-        <v>0.907646826507833</v>
+        <v>0.8475575202273059</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06296832114458084</v>
+        <v>0.1617724597454071</v>
       </c>
       <c r="H54" t="n">
-        <v>0.04795275628566742</v>
+        <v>0.2214924842119217</v>
       </c>
       <c r="I54" t="n">
-        <v>0.04668325185775757</v>
+        <v>0.2923086583614349</v>
       </c>
       <c r="J54" t="n">
-        <v>0.04735532030463219</v>
+        <v>0.2548188269138336</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>model_2_8_15</t>
+          <t>model_4_9_11</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9415400669703001</v>
+        <v>0.8535736329748725</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7818598905668757</v>
+        <v>0.865749560574264</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8641218314386552</v>
+        <v>0.770215455949701</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9092258979601415</v>
+        <v>0.8477555194955484</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06469792127609253</v>
+        <v>0.1620508581399918</v>
       </c>
       <c r="H55" t="n">
-        <v>0.04848096892237663</v>
+        <v>0.2212894558906555</v>
       </c>
       <c r="I55" t="n">
-        <v>0.04436761885881424</v>
+        <v>0.2918461263179779</v>
       </c>
       <c r="J55" t="n">
-        <v>0.04654562845826149</v>
+        <v>0.2544878423213959</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>model_2_8_14</t>
+          <t>model_4_9_10</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.9399358042836803</v>
+        <v>0.8533201576659047</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7791546207618018</v>
+        <v>0.8659252067511927</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8729499677483105</v>
+        <v>0.7705077367481585</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9112508269155412</v>
+        <v>0.8479494254209911</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06647336483001709</v>
+        <v>0.1623313575983047</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0490822046995163</v>
+        <v>0.2209999561309814</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0414850078523159</v>
+        <v>0.2914749085903168</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04550731554627419</v>
+        <v>0.2541637420654297</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>model_2_8_13</t>
+          <t>model_4_9_9</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.9380705154802378</v>
+        <v>0.8530808649489754</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7762038230533126</v>
+        <v>0.8662424760177253</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8780352402582813</v>
+        <v>0.7706871769395388</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9120982312993604</v>
+        <v>0.8481786547398842</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06853769719600677</v>
+        <v>0.162596195936203</v>
       </c>
       <c r="H57" t="n">
-        <v>0.04973800852894783</v>
+        <v>0.220476970076561</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03982454165816307</v>
+        <v>0.2912470102310181</v>
       </c>
       <c r="J57" t="n">
-        <v>0.04507280141115189</v>
+        <v>0.2537806034088135</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>model_2_8_12</t>
+          <t>model_4_9_8</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.9360964429091412</v>
+        <v>0.852822352751625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7725214763870081</v>
+        <v>0.8665480183450789</v>
       </c>
       <c r="E58" t="n">
-        <v>0.883106711121044</v>
+        <v>0.770786083392602</v>
       </c>
       <c r="F58" t="n">
-        <v>0.912773669946098</v>
+        <v>0.8483733060379308</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07072240859270096</v>
+        <v>0.1628822982311249</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05055640265345573</v>
+        <v>0.2199733406305313</v>
       </c>
       <c r="I58" t="n">
-        <v>0.03816857933998108</v>
+        <v>0.2911213934421539</v>
       </c>
       <c r="J58" t="n">
-        <v>0.04472646117210388</v>
+        <v>0.2534551918506622</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>model_2_8_11</t>
+          <t>model_2_1_4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.934217480800039</v>
+        <v>0.8525844297462789</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7693147381160061</v>
+        <v>0.8900752079864889</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8917024594048842</v>
+        <v>0.7958432596498444</v>
       </c>
       <c r="F59" t="n">
-        <v>0.914612345090716</v>
+        <v>0.8455115290858115</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0728018656373024</v>
+        <v>0.163145586848259</v>
       </c>
       <c r="H59" t="n">
-        <v>0.05126908794045448</v>
+        <v>0.1169846877455711</v>
       </c>
       <c r="I59" t="n">
-        <v>0.03536185622215271</v>
+        <v>0.2197361290454865</v>
       </c>
       <c r="J59" t="n">
-        <v>0.04378365725278854</v>
+        <v>0.1653381586074829</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>model_2_8_10</t>
+          <t>model_4_9_7</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.9320059591666146</v>
+        <v>0.8525270696872302</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7651033790362224</v>
+        <v>0.8667627769837046</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8947279623468111</v>
+        <v>0.7708162275348474</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9145543814922679</v>
+        <v>0.8484984599130256</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07524936646223068</v>
+        <v>0.163209080696106</v>
       </c>
       <c r="H60" t="n">
-        <v>0.05220505222678185</v>
+        <v>0.2196193486452103</v>
       </c>
       <c r="I60" t="n">
-        <v>0.03437395021319389</v>
+        <v>0.2910830974578857</v>
       </c>
       <c r="J60" t="n">
-        <v>0.04381337761878967</v>
+        <v>0.253246009349823</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>model_2_6_1</t>
+          <t>model_4_9_6</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.9307786634340938</v>
+        <v>0.8522214302770793</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9276296086708635</v>
+        <v>0.8670102907125089</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8273391869092411</v>
+        <v>0.7707476262237698</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8737295079152819</v>
+        <v>0.8486005436981532</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07660762220621109</v>
+        <v>0.1635473221540451</v>
       </c>
       <c r="H61" t="n">
-        <v>0.05456584692001343</v>
+        <v>0.2192113697528839</v>
       </c>
       <c r="I61" t="n">
-        <v>0.171784296631813</v>
+        <v>0.2911702394485474</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1097274795174599</v>
+        <v>0.2530753612518311</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 7], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>model_1_9_2</t>
+          <t>model_8_9_0</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.9302577534446382</v>
+        <v>0.8519997724203243</v>
       </c>
       <c r="D62" t="n">
-        <v>0.726170161700018</v>
+        <v>0.8109926061015265</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9174664890482581</v>
+        <v>0.8381156946583114</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8387992484885276</v>
+        <v>0.8402978180602203</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07718411833047867</v>
+        <v>0.1637926250696182</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2769697606563568</v>
+        <v>0.1877982169389725</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1248071789741516</v>
+        <v>0.3901978135108948</v>
       </c>
       <c r="J62" t="n">
-        <v>0.205363854765892</v>
+        <v>0.2830448746681213</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>model_2_8_9</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0.9298787270942404</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.7615403797369731</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.901922925173075</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.9158924136677132</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.07760357856750488</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.0529969185590744</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.03202461451292038</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.04312728345394135</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>model_2_6_0</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.9288475749215899</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9226391259529717</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.8291481305218934</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.8724118019901387</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.07874476909637451</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.05832857638597488</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.1699845343828201</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.1108725666999817</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>model_2_5_24</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0.92766036030759</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.8087717859904491</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.9141520183685451</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.8833433525680766</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.08005865663290024</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.1375091522932053</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.0877075269818306</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.1140730008482933</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>model_2_8_8</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0.9273431792972743</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.7567170909242034</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.9032106546441085</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.9151712044420116</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.0804096907377243</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.05406887456774712</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.03160414099693298</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.04349709302186966</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>model_2_5_23</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0.9259834598074248</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.8118323832204719</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.9155204895417481</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.8852074467759135</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.0819144994020462</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.1353083252906799</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.08630941808223724</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.1122501939535141</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>model_2_6_2</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0.9258945351342092</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.930767554552054</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.774963828688341</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.8469517086145939</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.08201291412115097</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.05219989642500877</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.2238937765359879</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.132997065782547</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>model_2_8_7</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0.9249583968905311</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.7530308477789445</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.9099103423587842</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.916332723185644</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.08304893970489502</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.05488813295960426</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.029416523873806</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.04290150478482246</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>model_2_5_22</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0.9244086874624322</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.8104957510354532</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.9198061120027666</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.886795029794517</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.08365730196237564</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.1362694650888443</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.08193095773458481</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.1106977760791779</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>model_1_7_7</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0.9239249499133564</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.8388923346842161</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.6982386929758124</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.8020224625864423</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.0841926708817482</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.1965278834104538</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.2294701337814331</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.2120314687490463</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>model_2_5_21</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0.9225590615870078</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.8081660759319569</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.9224629379277567</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.8871933859304664</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.08570430427789688</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.1379446983337402</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.07921658456325531</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.1103082448244095</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>model_2_8_6</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0.9222193407067987</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.7483770934150352</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.9111076169151863</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.9156233642806266</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.08608026802539825</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.05592241510748863</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.02902558445930481</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.04326524212956429</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>model_2_9_0</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0.9212101422304856</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.7799780409876145</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.5386484082878349</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.7557627341576276</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.08719716221094131</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.3738993406295776</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.09919924288988113</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.2446278929710388</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>model_2_8_5</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0.9210046762752879</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.7472584134942016</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.9367061909453079</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.9230383356477879</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.08742453902959824</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.05617104098200798</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.02066700905561447</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.03946311771869659</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>model_2_5_20</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0.9200475591943864</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.8059416825316688</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.921133031688218</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.8856743188658536</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.08848379552364349</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.1395442187786102</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.08057529479265213</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.1117936596274376</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>model_1_7_6</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>0.919611643563079</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.8356564952796917</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.699107420154027</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.8003630779985884</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.08896622806787491</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.2004751265048981</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.2288095057010651</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.2138086408376694</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>model_2_5_19</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>0.9168458193916134</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.8025362355650153</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.9149535789620166</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.88130981230034</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.09202717989683151</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.1419930309057236</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.08688860386610031</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.1160615086555481</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>model_2_8_4</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0.9163039372403068</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.7381011290232522</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.9411573993644148</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.9222706421746307</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.09262687712907791</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.0582062192261219</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.01921357959508896</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.03985676169395447</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>model_1_7_5</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>0.9135297534245534</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.8381252563875318</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.7512429101699851</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.8192717317888574</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.09569708257913589</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.1974636018276215</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.1891638189554214</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.1935577094554901</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>model_2_5_18</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>0.913462862542386</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.8004155265145854</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.9068453376699321</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.8764974749956556</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.09577111154794693</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.1435179859399796</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.09517247974872589</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.1207672581076622</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>model_2_5_17</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>0.910191661714284</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.7982976647824784</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.8989926327959239</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.8718119090993346</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.09939136356115341</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.1450409144163132</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.1031952798366547</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.1253490597009659</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>model_2_8_3</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>0.9094802854176854</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.7254305186038378</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.9234097518097909</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.9140444527829711</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.1001786515116692</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.06102222204208374</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.02500863000750542</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.04407485201954842</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>model_1_4_4</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>0.9083193919032991</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.8427969254031282</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.5061694448159831</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.8096083918174918</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.1014634221792221</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.1305499672889709</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.08926913142204285</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.1111237406730652</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>model_2_8_2</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>0.9081267306446854</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.7264464811955673</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.9517301931448993</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.9227643181610304</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.1016766354441643</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.06079643219709396</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.01576129905879498</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.03960362076759338</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>model_1_7_4</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>0.9070790067943266</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.8318548937315535</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.7797414964243239</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.8250125513993292</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.1028361544013023</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.2051125317811966</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.1674924790859222</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.187409371137619</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>model_2_5_16</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>0.9065717193963164</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.7962066193032877</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.8905291518856999</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.8668366875894102</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.1033975705504417</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.1465445309877396</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.111842080950737</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.1302140951156616</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>model_2_8_1</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>0.9055847413344444</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.7224576756801415</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.9662046290298864</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.926186753442389</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.1044898703694344</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.06168292090296745</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.01103503257036209</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.03784872218966484</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>model_2_6_3</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>0.9051823494024952</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.9311369811036994</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.6022426447539764</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.7540615857503122</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.1049351841211319</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.05192135646939278</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.3957381248474121</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.2137174159288406</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>model_2_5_15</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>0.9028691277839473</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.7888586191914766</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.8844267924199788</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.8609761019689439</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.1074952483177185</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.1518283784389496</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.1180766299366951</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.1359448879957199</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>model_2_8_0</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>0.9023468838904651</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.7162734937975124</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.9716078872198831</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.9263871441940379</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.1080732271075249</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.06305733323097229</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.009270733222365379</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.03774597123265266</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>model_1_9_1</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>0.9008683353133761</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.6562294261308546</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.8985857639664496</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.7988531637265018</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.1097095385193825</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.3477124869823456</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.1533586084842682</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.256253719329834</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>model_1_7_3</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>0.8988347642980856</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.8209980780654498</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.8136582971749554</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.8297987307115229</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.1119601055979729</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.2183562517166138</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.1417009234428406</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.1822834312915802</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>model_2_5_14</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>0.8985020618974016</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.774746607575112</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.8798641618645109</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.8532383881489957</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.1123283058404922</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.1619760990142822</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.1227380931377411</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.1435112208127975</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40, 20], regularizer=0.1, learning_rate=0.02</t>
+          <t>Hidden Size=[15, 8], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
